--- a/src/user.xlsx
+++ b/src/user.xlsx
@@ -1,28 +1,53 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA167592-F356-4E20-86F7-6D33B0A6B45D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+  <si>
+    <t xml:space="preserve"> asd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dsa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -50,15 +75,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -100,7 +133,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,9 +166,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -168,6 +218,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -343,37 +410,72 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>123</v>
+      </c>
+      <c r="D1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>123</v>
+      </c>
+      <c r="D2">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/user.xlsx
+++ b/src/user.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA167592-F356-4E20-86F7-6D33B0A6B45D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D2EEBB-AA3D-4CF6-98A5-519BEA77DE06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5550" yWindow="2715" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,17 +17,53 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
-  <si>
-    <t xml:space="preserve"> asd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dsa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>asd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zxc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桂林电子科技大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桂林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qwe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ewq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XYZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZXC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -71,8 +107,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -411,39 +448,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="12.75" style="1" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1">
-        <v>123</v>
-      </c>
-      <c r="D1">
-        <v>123</v>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1">
+        <v>18978814860</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>456</v>
+      </c>
+      <c r="B4" s="1">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
         <v>123</v>
       </c>
-      <c r="D2">
+      <c r="B5" s="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1">
+        <v>123</v>
+      </c>
+      <c r="D6" s="1">
         <v>123</v>
       </c>
     </row>
